--- a/反復２/テスト仕様書/4.Board-Cell統合テスト仕様書.xlsx
+++ b/反復２/テスト仕様書/4.Board-Cell統合テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\13_HJHK\反復２\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studyuser\Documents\13_HJHK\反復２\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC05B143-216A-4CE2-97B3-B7C858CFE886}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089D143-2B79-48F3-87E7-E66B6081AD88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="210" windowWidth="12465" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="675" windowWidth="9435" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turn-Player" sheetId="3" r:id="rId1"/>
@@ -161,6 +161,20 @@
     <t>1. Cell(2,2)のインスタンスを生成、Mark.CIRCLEを入力する。 
 2. Cell(1,1)のインスタンスを生成、Mark.CROSSを入力する。
 3. Cell(1,3)のインスタンスを生成、Mark.CIRCLEを入力する。
+4.Cell(3,1)のインスタンスを生成、Mark.CROSSを入力する。
+5.Cell(2,1)のインスタンスを生成、Mark.CIRCLEを入力する。
+6.Cell(2,3)のインスタンスを生成、Mark.CROSSを入力する。
+7.isFull()を実行する。</t>
+    <rPh sb="252" eb="254">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Boardのインスタンスを生成する。
+1. Cell(2,2)のインスタンスを生成、Mark.CIRCLEを入力する。 
+2. Cell(1,1)のインスタンスを生成、Mark.CROSSを入力する。
+3. Cell(1,3)のインスタンスを生成、Mark.CIRCLEを入力する。
 4. Cell(3,1)のインスタンスを生成、Mark.CROSSを入力する。
 5. Cell(2,1)のインスタンスを生成、Mark.CIRCLEを入力する。
 6. Cell(2,3)のインスタンスを生成、Mark.CROSSを入力する。
@@ -168,20 +182,10 @@
 8. Cell(3,2)のインスタンスを生成、Mark.CROSSを入力する。
 9. Cell(3,3)のインスタンスを生成、Mark.CIRCLEを入力する。
 10.isFull()を実行する。</t>
-    <rPh sb="378" eb="380">
-      <t>ジッコウ</t>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. Cell(2,2)のインスタンスを生成、Mark.CIRCLEを入力する。 
-2. Cell(1,1)のインスタンスを生成、Mark.CROSSを入力する。
-3. Cell(1,3)のインスタンスを生成、Mark.CIRCLEを入力する。
-4.Cell(3,1)のインスタンスを生成、Mark.CROSSを入力する。
-5.Cell(2,1)のインスタンスを生成、Mark.CIRCLEを入力する。
-6.Cell(2,3)のインスタンスを生成、Mark.CROSSを入力する。
-7.isFull()を実行する。</t>
-    <rPh sb="252" eb="254">
+    <rPh sb="399" eb="401">
       <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -240,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,22 +478,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,6 +505,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,35 +529,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,8 +902,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:S8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -889,104 +917,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1079,609 +1107,659 @@
       <c r="AS5" s="6"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="10" t="s">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="10" t="s">
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="10" t="s">
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="10" t="s">
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="10" t="s">
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="25"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="9"/>
     </row>
     <row r="7" spans="2:45" ht="171.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="13"/>
+    </row>
+    <row r="8" spans="2:45" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="22"/>
-    </row>
-    <row r="8" spans="2:45" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="13" t="b">
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="22"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="22"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="13"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="22"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="13"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="22"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="13"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="22"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="13"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="22"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="13"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="22"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="13"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="22"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="13"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="22"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="13"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="15"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
     <mergeCell ref="B2:AS3"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:S12"/>
@@ -1698,72 +1776,22 @@
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AP10:AS10"/>
     <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1773,6 +1801,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1956,22 +1999,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA17F4DE-213F-42DC-89C5-9AB4AB629695}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1987,21 +2032,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/反復２/テスト仕様書/4.Board-Cell統合テスト仕様書.xlsx
+++ b/反復２/テスト仕様書/4.Board-Cell統合テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studyuser\Documents\13_HJHK\反復２\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\13_HJHK\反復２\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089D143-2B79-48F3-87E7-E66B6081AD88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3661A00-B558-45D9-B3BF-93BBBC06A82C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="675" windowWidth="9435" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turn-Player" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>引き分けを判断する（引き分けでない場合）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル：Board-Cell統合テスト仕様書</t>
     <rPh sb="15" eb="17">
       <t>トウゴウ</t>
@@ -190,12 +186,33 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>合格</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>琴</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引き分けを判断する（勝負ありの場合）</t>
+    <rPh sb="10" eb="12">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -243,8 +260,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,12 +277,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +495,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,24 +519,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,22 +576,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,8 +925,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:S7"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -917,104 +940,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1107,590 +1130,606 @@
       <c r="AS5" s="6"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="7" t="s">
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7" t="s">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7" t="s">
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="10"/>
     </row>
     <row r="7" spans="2:45" ht="171.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="13"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="35">
+        <v>43996</v>
+      </c>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="14"/>
     </row>
     <row r="8" spans="2:45" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="31" t="b">
+      <c r="C8" s="18"/>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="13"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="35">
+        <v>43996</v>
+      </c>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="14"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="13"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="14"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="13"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="14"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="13"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="14"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="13"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="14"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="13"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="14"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="13"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="14"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="14"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="13"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="14"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="21"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="98">
